--- a/data/trans_dic/P25_9-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_9-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece mala circulación</t>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30,33%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 15,47</t>
+          <t>5,58; 17,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,46; 16,2</t>
+          <t>9,49; 19,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,72</t>
+          <t>7,67; 15,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 16,27</t>
+          <t>9,41; 24,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,0; 40,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,84; 34,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,43; 32,45</t>
+          <t>23,56; 39,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,72; 38,33</t>
+          <t>22,82; 34,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 27,39</t>
+          <t>24,92; 34,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,5; 24,9</t>
+          <t>32,08; 48,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 23,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 27,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 27,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 25,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,82; 24,53</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>23,71; 36,87</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,12 +905,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,47 +920,77 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,02</t>
+          <t>2,81; 7,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,96</t>
+          <t>2,37; 8,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,37</t>
+          <t>2,07; 6,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,51</t>
+          <t>4,1; 9,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 19,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 19,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 19,44</t>
+          <t>13,34; 21,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,83; 21,99</t>
+          <t>14,38; 21,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,93</t>
+          <t>13,2; 20,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 12,22</t>
+          <t>16,75; 25,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 14,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 13,38</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 11,71</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11,3; 16,56</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,73%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,87</t>
+          <t>2,43; 7,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,73</t>
+          <t>0,9; 3,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,3</t>
+          <t>1,98; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,14</t>
+          <t>1,0; 4,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 14,91</t>
+          <t>11,42; 19,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,91</t>
+          <t>10,93; 17,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,08</t>
+          <t>9,79; 15,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,38</t>
+          <t>11,28; 18,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,83; 12,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 10,3</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 9,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 11,04</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,09</t>
+          <t>3,4; 8,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,11</t>
+          <t>3,32; 9,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,98</t>
+          <t>4,78; 10,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 21,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 20,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 19,82</t>
+          <t>14,83; 21,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 24,18</t>
+          <t>14,66; 23,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 13,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 13,54</t>
+          <t>21,77; 31,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 12,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 13,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 14,29</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 19,23</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 7,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 7,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 6,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 8,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 20,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,85; 20,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 20,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,61; 26,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 13,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 13,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 12,98</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 17,36</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33271</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70703</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80318</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75709</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>129404</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>180494</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>261413</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>247028</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>162675</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>251197</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>341731</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>322737</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18765; 57550</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50323; 101772</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55551; 111959</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42093; 110418</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97653; 164900</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>144784; 216317</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>223515; 307532</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>197831; 299102</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>121905; 202883</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>210528; 300702</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>288974; 397711</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>252269; 392342</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>44237</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53428</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55631</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67488</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>171437</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>214873</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>238997</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>225615</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>215673</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>268301</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>294628</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>293103</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26125; 69989</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28638; 105639</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33553; 109005</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43633; 101509</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>133134; 218338</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>176913; 264476</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>198080; 309536</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>180952; 274802</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>173218; 273301</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>223167; 326082</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>243956; 365728</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>242355; 355253</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30383</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16025</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35319</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19341</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>115592</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>132628</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>142180</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>131006</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>145974</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>148653</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>177499</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>150348</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17409; 52078</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7584; 30806</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21553; 55025</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8243; 38537</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>87306; 146788</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>102948; 165745</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>113749; 176149</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>101180; 166471</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>115860; 187145</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>118444; 184164</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>144901; 216084</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>115279; 190311</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>79254</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47154</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80076</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>249407</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>142259</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>256908</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>328661</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>189413</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>336985</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>49496; 127955</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28591; 79705</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52467; 112863</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>205503; 298964</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>111602; 177937</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>213598; 310392</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>274237; 396898</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>147208; 231766</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>277300; 399963</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>187144</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>187310</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>171269</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>242615</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>665840</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>670254</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>642589</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>860558</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>852984</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>857564</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>813858</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1103172</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>145310; 248704</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>146011; 248230</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>132206; 218281</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>191251; 301223</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>590394; 747259</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>601203; 747102</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>577646; 723604</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>772751; 949731</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>762772; 948100</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>773593; 953413</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>729275; 908190</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>990364; 1217235</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
